--- a/ui_design.xlsx
+++ b/ui_design.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="作业雷锋" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,45 +24,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>今日作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日作业 [无]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消  息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5分钟前 张老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日作业 [暂无]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日作业</t>
+  </si>
+  <si>
+    <t>今日作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[语文]作文要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15分钟前 王老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于秋游的通知…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[科技]模拟机器人亲子赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天统一穿校服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>其它</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关于秋游的通知…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小时前 方乐文爸爸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日作业 [无]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消  息</t>
+    <t>秋游花絮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布作业</t>
+  </si>
+  <si>
+    <t>（有 无）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片文字皆可，没有作业点右上按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷锋来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑｜发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息置顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（开 关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时前 张三爸爸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,51 +160,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日作业 [暂无]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15分钟前 王老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋游花絮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明天统一穿校服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5分钟前 张老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5分钟前 朱老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[科技]模拟机器人亲子赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[语文]作文要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">+ </t>
+    <t>查看作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天作业不多，做完后自查，家长签名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[…]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√ 张三妈妈，李四爸爸，王五奶奶，五麻子爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷，雷锋叔叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5分钟前 张老师发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日
+11/12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +254,97 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +363,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -286,13 +476,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,6 +649,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,24 +675,125 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,6 +810,167 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771525" cy="695324"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="5562601"/>
+          <a:ext cx="771525" cy="695324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771525" cy="695324"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="6248401"/>
+          <a:ext cx="771525" cy="695324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771525" cy="695324"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400425" y="7105650"/>
+          <a:ext cx="771525" cy="695324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771525" cy="695324"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="7105650"/>
+          <a:ext cx="771525" cy="695324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,207 +1248,656 @@
     <col min="2" max="2" width="8.625" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="1" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="1" customWidth="1"/>
+    <col min="10" max="10" width="1.375" customWidth="1"/>
+    <col min="11" max="11" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="F3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="K3" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="47"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D5" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="12"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D12" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1"/>
+      <c r="D14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D15" s="2"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F20" s="5"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" s="14" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F30" s="18"/>
+      <c r="G30" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F31" s="18"/>
+      <c r="G31" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F32" s="18"/>
+      <c r="G32" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F33" s="18"/>
+      <c r="G33" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F34" s="5"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F35" s="5"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F36" s="13"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F37" s="5"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" spans="6:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="5"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="46"/>
+    </row>
+    <row r="39" spans="6:12" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="46"/>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="46"/>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F41" s="5"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="46"/>
+    </row>
+    <row r="42" spans="6:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="5"/>
+      <c r="G42" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F43" s="5"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="46"/>
+    </row>
+    <row r="44" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F44" s="5"/>
+      <c r="G44" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="46"/>
+    </row>
+    <row r="45" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F45" s="5"/>
+      <c r="G45" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="46"/>
+    </row>
+    <row r="46" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F46" s="5"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="46"/>
+    </row>
+    <row r="47" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F47" s="5"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="46"/>
+    </row>
+    <row r="48" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F48" s="5"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="46"/>
+    </row>
+    <row r="49" spans="6:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="6"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="46"/>
+    </row>
+    <row r="50" spans="6:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L50" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A23:B23"/>
+  <mergeCells count="9">
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G10:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>